--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N2">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O2">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P2">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q2">
-        <v>307.383040293212</v>
+        <v>171.6151494756393</v>
       </c>
       <c r="R2">
-        <v>2766.447362638908</v>
+        <v>1544.536345280754</v>
       </c>
       <c r="S2">
-        <v>0.01843351658850287</v>
+        <v>0.01684419991321273</v>
       </c>
       <c r="T2">
-        <v>0.01843351658850287</v>
+        <v>0.01684419991321273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.884056</v>
       </c>
       <c r="O3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q3">
-        <v>1826.159228223963</v>
+        <v>743.681821104712</v>
       </c>
       <c r="R3">
-        <v>16435.43305401566</v>
+        <v>6693.136389942409</v>
       </c>
       <c r="S3">
-        <v>0.1095133173079536</v>
+        <v>0.07299312039050516</v>
       </c>
       <c r="T3">
-        <v>0.1095133173079536</v>
+        <v>0.07299312039050515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>132.264745</v>
       </c>
       <c r="O4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q4">
-        <v>8984.376637604058</v>
+        <v>3658.781488535448</v>
       </c>
       <c r="R4">
-        <v>80859.38973843654</v>
+        <v>32929.03339681904</v>
       </c>
       <c r="S4">
-        <v>0.5387859253023639</v>
+        <v>0.3591130912390774</v>
       </c>
       <c r="T4">
-        <v>0.538785925302364</v>
+        <v>0.3591130912390774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N5">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O5">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P5">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q5">
-        <v>95.24088610686401</v>
+        <v>130.5721710240338</v>
       </c>
       <c r="R5">
-        <v>857.1679749617761</v>
+        <v>1175.149539216304</v>
       </c>
       <c r="S5">
-        <v>0.005711520233126407</v>
+        <v>0.0128157902058829</v>
       </c>
       <c r="T5">
-        <v>0.005711520233126407</v>
+        <v>0.0128157902058829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>26.884056</v>
       </c>
       <c r="O6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q6">
-        <v>565.8250465034454</v>
+        <v>565.8250465034453</v>
       </c>
       <c r="R6">
-        <v>5092.425418531008</v>
+        <v>5092.425418531007</v>
       </c>
       <c r="S6">
-        <v>0.03393207826613458</v>
+        <v>0.05553629867950457</v>
       </c>
       <c r="T6">
-        <v>0.03393207826613458</v>
+        <v>0.05553629867950455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>132.264745</v>
       </c>
       <c r="O7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q7">
         <v>2783.757982441018</v>
@@ -880,10 +880,10 @@
         <v>25053.82184196916</v>
       </c>
       <c r="S7">
-        <v>0.1669397534058972</v>
+        <v>0.2732286520712688</v>
       </c>
       <c r="T7">
-        <v>0.1669397534058972</v>
+        <v>0.2732286520712688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N8">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O8">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P8">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q8">
-        <v>58.404928193148</v>
+        <v>80.07126544502533</v>
       </c>
       <c r="R8">
-        <v>525.644353738332</v>
+        <v>720.641389005228</v>
       </c>
       <c r="S8">
-        <v>0.003502497117836228</v>
+        <v>0.007859075417181522</v>
       </c>
       <c r="T8">
-        <v>0.003502497117836229</v>
+        <v>0.007859075417181522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>26.884056</v>
       </c>
       <c r="O9">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P9">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q9">
         <v>346.983029681584</v>
       </c>
       <c r="R9">
-        <v>3122.847267134256</v>
+        <v>3122.847267134257</v>
       </c>
       <c r="S9">
-        <v>0.02080829647420761</v>
+        <v>0.03405673413044735</v>
       </c>
       <c r="T9">
-        <v>0.02080829647420761</v>
+        <v>0.03405673413044735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>132.264745</v>
       </c>
       <c r="O10">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P10">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q10">
         <v>1707.094418348263</v>
@@ -1066,10 +1066,10 @@
         <v>15363.84976513437</v>
       </c>
       <c r="S10">
-        <v>0.1023730953039775</v>
+        <v>0.1675530379529196</v>
       </c>
       <c r="T10">
-        <v>0.1023730953039775</v>
+        <v>0.1675530379529196</v>
       </c>
     </row>
   </sheetData>
